--- a/biology/Zoologie/Henry_Eeles_Dresser/Henry_Eeles_Dresser.xlsx
+++ b/biology/Zoologie/Henry_Eeles_Dresser/Henry_Eeles_Dresser.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Eeles Dresser est un homme d’affaires et un ornithologue britannique, né le 9 mai 1838 à Thirsk et mort le 28 novembre 1915 à Monte-Carlo.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils d'un banquier devenu négociant en bois de construction. Il étudie à Bromley au sud-est de Londres, puis est envoyé en 1852 à Ahrensburg pour y étudier l’allemand, puis le suédois en 1854 à Gèfle et Upsal. Pendant un séjour en 1856-58 à Vyborg, il apprend le finnois. Ainsi il peut communiquer dans leurs langues avec les principaux producteurs de bois en Europe.
 Son métier lui permet de voyager beaucoup en Europe et d’assouvir sa passion pour la collection de peaux d’oiseaux et d’œufs qui l’habite depuis l’adolescence. Il entre dans l’entreprise familiale et part huit ans en Scandinavie et en Finlande. En 1859, il se rend au Nouveau-Brunswick (au Canada), voyage en Russie, en Allemagne et en Finlande et revient au Nouveau-Brunswick en 1862. En 1863, il se rend au Texas lors d'un voyage aventureux qui lui permet de rencontrer Adolphus Lewis Heermann (1827-1865), l’un des premiers ornithologues de terrain des États-Unis.
@@ -546,10 +560,12 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(Liste partielle)
-1902-1903 : A manual of palæarctic birds[1] (Londres).</t>
+1902-1903 : A manual of palæarctic birds (Londres).</t>
         </is>
       </c>
     </row>
